--- a/Excel-XLSX/UN-VCT.xlsx
+++ b/Excel-XLSX/UN-VCT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>CfZ3Fj</t>
+    <t>hYbS1u</t>
   </si>
   <si>
     <t>2019</t>
@@ -117,6 +117,9 @@
     <t>38</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -141,7 +144,10 @@
     <t>2022</t>
   </si>
   <si>
-    <t>null</t>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -526,7 +532,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -666,8 +672,8 @@
       <c r="U2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>31</v>
+      <c r="V2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -681,10 +687,10 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -732,10 +738,10 @@
         <v>31</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +755,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -800,10 +806,10 @@
         <v>31</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -817,10 +823,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
@@ -865,12 +871,80 @@
         <v>31</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="V5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-VCT.xlsx
+++ b/Excel-XLSX/UN-VCT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>hYbS1u</t>
+    <t>42sUX8</t>
   </si>
   <si>
     <t>2019</t>
@@ -117,37 +117,31 @@
     <t>38</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
 </sst>
 </file>
@@ -532,7 +526,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -672,8 +666,8 @@
       <c r="U2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -687,10 +681,10 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -738,10 +732,10 @@
         <v>31</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -755,10 +749,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -806,10 +800,10 @@
         <v>31</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -823,10 +817,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
@@ -871,80 +865,12 @@
         <v>31</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-VCT.xlsx
+++ b/Excel-XLSX/UN-VCT.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>42sUX8</t>
+    <t>8zOBny</t>
   </si>
   <si>
     <t>2019</t>
